--- a/biology/Médecine/Obstruction_nasale/Obstruction_nasale.xlsx
+++ b/biology/Médecine/Obstruction_nasale/Obstruction_nasale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'obstruction nasale, communément appelée « le nez bouché », est la réduction du flux d'air du nez causé par un obstacle au flux d'air dans ou au dehors du nez[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'obstruction nasale, communément appelée « le nez bouché », est la réduction du flux d'air du nez causé par un obstacle au flux d'air dans ou au dehors du nez.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La cause la plus fréquent est la rhinite, ce que l'on appelle communément « le rhume ». Cette irritation des parois nasales va provoquer son gonflement, empêchant donc le mucus de s'écouler normalement. 
 D'autres causes sont possibles :
 congestion nasale,
 déviation de la cloison nasale,
 hypertrophie des cornets,
-une sinusite, éventuellement chronique[2] (par exemple, une sinusite fongique allergique)...
+une sinusite, éventuellement chronique (par exemple, une sinusite fongique allergique)...
 introduction accidentelle d'un objet (chez l'enfant).</t>
         </is>
       </c>
@@ -547,12 +561,14 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une difficulté à respirer par le nez. 
-La respiration fonctionne habituellement par cycle nasal, c'est-à-dire qu'une seule narine est utilisée pour respirer à la fois, et s'alternent toutes les 1 à 5 heures. Respirer par une narine plus que l'autre aurait un effet sur le système nerveux autonome (sympathique et parasympathique)[3],[4], et augmenterait l'activité de l'hémisphère cérébral opposé à la narine utilisée[5].
-Il y a une relation entre l'obstruction nasale et les niveaux d'anxiété[6],[7],[8] et de dépression[7],[8],[9].
-Une étude a établi un lien entre une mauvaise posture, particulièrement la cyphose et une obstruction nasopharyngée[10].
+La respiration fonctionne habituellement par cycle nasal, c'est-à-dire qu'une seule narine est utilisée pour respirer à la fois, et s'alternent toutes les 1 à 5 heures. Respirer par une narine plus que l'autre aurait un effet sur le système nerveux autonome (sympathique et parasympathique) et augmenterait l'activité de l'hémisphère cérébral opposé à la narine utilisée.
+Il y a une relation entre l'obstruction nasale et les niveaux d'anxiété et de dépression.
+Une étude a établi un lien entre une mauvaise posture, particulièrement la cyphose et une obstruction nasopharyngée.
 </t>
         </is>
       </c>
